--- a/WIP/Documents/Usecase Diagram/List of UseCase.xlsx
+++ b/WIP/Documents/Usecase Diagram/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -36,9 +36,6 @@
     <t>READER/AUTHOR MODULE</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Login by Facebook account</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Create a group</t>
   </si>
   <si>
-    <t>Add new member to group</t>
-  </si>
-  <si>
     <t>UC019</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>ADMIN MODULE</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
     <t>Report other account</t>
   </si>
   <si>
@@ -519,12 +510,6 @@
     <t>View statistics</t>
   </si>
   <si>
-    <t>View statistic about number of users/authors/group</t>
-  </si>
-  <si>
-    <t>Xem thông tin thống kê về số lượng tài khoản người dùng thường/tác giả/nhóm</t>
-  </si>
-  <si>
     <t>View statistic about access times</t>
   </si>
   <si>
@@ -579,15 +564,6 @@
     <t>Statistic access times</t>
   </si>
   <si>
-    <t>Thống kê số lượng tài khoản người dùng thường/tác giả/nhóm</t>
-  </si>
-  <si>
-    <t>Thống kê lượt truy cập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem thông tin thống kê lượt truy cập </t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -615,9 +591,6 @@
     <t>Giới thiệu sách/tác giả cho người dùng: Dựa trên danh sách những sách họ bình chọn, tác giả đang theo dõi</t>
   </si>
   <si>
-    <t>Statistic number of readers/authors/group</t>
-  </si>
-  <si>
     <t>Manage publisher</t>
   </si>
   <si>
@@ -637,13 +610,82 @@
   </si>
   <si>
     <t>Đặt lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>Interact with other accounts</t>
+  </si>
+  <si>
+    <t>Interact with groups</t>
+  </si>
+  <si>
+    <t>Manage group</t>
+  </si>
+  <si>
+    <t>View statistic about authors</t>
+  </si>
+  <si>
+    <t>View statistic about users</t>
+  </si>
+  <si>
+    <t>View statistic about groups</t>
+  </si>
+  <si>
+    <t>View statistic about books</t>
+  </si>
+  <si>
+    <t>Xem thông tin thống kê về người dùng thường: số lượng tài khoản cũ, số lượng tài khoản đăng ký  mới, ...</t>
+  </si>
+  <si>
+    <t>Xem thông tin thống kê về tác giả: số lượng tài khoản cũ, số lượng tài khoản đăng ký  mới, các tác giả đang được quan tâm nhất, …</t>
+  </si>
+  <si>
+    <t>Xem thông tin thống kê về các nhóm: số lượng nhóm cũ, số lượng nhóm mới đăng ký, tần suất hoạt động của nhóm, …</t>
+  </si>
+  <si>
+    <t>Xem thông tin thống kê về sách: số lượng sách trong database, số lượng sách được thêm mới, những quyển sách đang được người dùng quan tâm nhất, …</t>
+  </si>
+  <si>
+    <t>Xem thông tin thống kê lượt truy cập</t>
+  </si>
+  <si>
+    <t>Statistic users</t>
+  </si>
+  <si>
+    <t>Statistic authors</t>
+  </si>
+  <si>
+    <t>Statistic groups</t>
+  </si>
+  <si>
+    <t>Statistic books</t>
+  </si>
+  <si>
+    <t>Thống kê về người dùng thường</t>
+  </si>
+  <si>
+    <t>Thống kê về tác giả</t>
+  </si>
+  <si>
+    <t>Thống kê về nhóm</t>
+  </si>
+  <si>
+    <t>Thống kê về sách</t>
+  </si>
+  <si>
+    <t>Thống kê về lượt truy cập</t>
+  </si>
+  <si>
+    <t>Send mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +707,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -800,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -844,8 +894,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,6 +962,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,9 +1279,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:G76"/>
+  <dimension ref="D5:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1259,101 +1324,101 @@
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -1361,259 +1426,263 @@
     </row>
     <row r="17" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="19"/>
       <c r="E19" s="24"/>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="4" t="s">
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="18" t="s">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="4" t="s">
+    </row>
+    <row r="35" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
@@ -1621,131 +1690,133 @@
     </row>
     <row r="39" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="19"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="4" t="s">
+    </row>
+    <row r="43" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="E44" s="30"/>
       <c r="F44" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="E45" s="29"/>
       <c r="F45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -1753,31 +1824,31 @@
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
@@ -1785,326 +1856,383 @@
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D57" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D58" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D61" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D68" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="9" t="s">
+      <c r="G68" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E68" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="9" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D74" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69" s="10" t="s">
+      <c r="G74" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D75" s="40"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="41"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D71" s="12" t="s">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G72" s="14" t="s">
+      <c r="F77" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D74" s="12" t="s">
+      <c r="G81" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D82" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="G82" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D76" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>198</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="D74:D76"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="D73:G73"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="E53:E58"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="D49:G49"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E42:E43"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="D31:G31"/>
   </mergeCells>
